--- a/Anti-cheating exam system/files/questions.xlsx
+++ b/Anti-cheating exam system/files/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Feng\dev\code\AntiCheating\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Feng\dev\code\Anti-Cheating_Exam_System\Anti-cheating exam system\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF9E7B-E0BA-45EB-A501-51CA7812E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054CBD9F-298B-43AA-A69E-C8A46CF5C282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7131" yWindow="2486" windowWidth="18583" windowHeight="12565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7054" yWindow="3669" windowWidth="18583" windowHeight="12565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SingleChoice" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>index</t>
   </si>
@@ -161,10 +161,7 @@
     <t>5+1=7</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>multiple choice</t>
   </si>
 </sst>
 </file>
@@ -685,7 +682,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -758,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -787,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -816,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -855,7 +852,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -906,8 +903,8 @@
       <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>44</v>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -923,8 +920,8 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
-        <v>45</v>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -940,8 +937,8 @@
       <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
-        <v>44</v>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -957,8 +954,8 @@
       <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
-        <v>45</v>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -974,8 +971,8 @@
       <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
-        <v>45</v>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
